--- a/biology/Zoologie/Crocodylus/Crocodylus.xlsx
+++ b/biology/Zoologie/Crocodylus/Crocodylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crocodylus est un genre de crocodiliens de la famille des Crocodylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crocodylus est un genre de crocodiliens de la famille des Crocodylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, en Amérique tropicale, en Asie du Sud, en Asie du Sud-Est et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique, en Amérique tropicale, en Asie du Sud, en Asie du Sud-Est et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (20 mars 2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (20 mars 2020) :
 Crocodylus acutus Cuvier, 1807 — Crocodile américain
 Crocodylus halli Murray, Russo, Zorrilla &amp; McMahan, 2019
 Crocodylus intermedius Graves, 1819 — Crocodile de l'Orénoque
@@ -589,11 +605,48 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crocodylus est probablement originaire d'Afrique et a rayonné vers l'Asie du Sud-Est et les Amériques[3], bien qu'une origine Australie/Asie ait également été envisagée[4]. Les preuves phylogénétiques soutiennent que Crocodylus diverge de son parent récent le plus proche, le Voay éteint de Madagascar, il y a environ 25 millions d'années, près de la limite Oligocène/Miocène[3].
-Phylogénie
-Une étude de datation des pointes de 2018 par Lee &amp; Yates utilisant simultanément des données morphologiques, moléculaires (séquençage de l'ADN) et stratigraphiques (âge fossile) a établi les interrelations au sein des Crocodylidae[5]. En 2021, Hekkala et al. ont pu utiliser la paléogénomique, en extrayant l'ADN du Voay éteint, pour mieux établir les relations au sein des Crocodylidae, y compris les sous-familles Crocodylinae et Osteolaeminae[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crocodylus est probablement originaire d'Afrique et a rayonné vers l'Asie du Sud-Est et les Amériques, bien qu'une origine Australie/Asie ait également été envisagée. Les preuves phylogénétiques soutiennent que Crocodylus diverge de son parent récent le plus proche, le Voay éteint de Madagascar, il y a environ 25 millions d'années, près de la limite Oligocène/Miocène.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Crocodylus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocodylus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude de datation des pointes de 2018 par Lee &amp; Yates utilisant simultanément des données morphologiques, moléculaires (séquençage de l'ADN) et stratigraphiques (âge fossile) a établi les interrelations au sein des Crocodylidae. En 2021, Hekkala et al. ont pu utiliser la paléogénomique, en extrayant l'ADN du Voay éteint, pour mieux établir les relations au sein des Crocodylidae, y compris les sous-familles Crocodylinae et Osteolaeminae.
 Le cladogramme ci-dessous montre les résultats de la dernière étude :
 </t>
         </is>
